--- a/rtss-pre1917/src/main/resources/Finland.xlsx
+++ b/rtss-pre1917/src/main/resources/Finland.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\RTSS\rtss-pre1917\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08E48F49-1BFE-4D35-95D7-059360F04148}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03E398DA-D9DB-4D48-AF67-F5B9DE9DB435}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="85920" yWindow="555" windowWidth="25995" windowHeight="22200" xr2:uid="{A060995A-2749-4ABA-851F-F51FEC648169}"/>
+    <workbookView xWindow="60000" yWindow="705" windowWidth="25995" windowHeight="22200" activeTab="1" xr2:uid="{A060995A-2749-4ABA-851F-F51FEC648169}"/>
   </bookViews>
   <sheets>
     <sheet name="notes" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>губ</t>
   </si>
@@ -84,12 +84,6 @@
     <t>№8 стр. 10-11</t>
   </si>
   <si>
-    <t>чо</t>
-  </si>
-  <si>
-    <t>чо - численность населения обоих полов</t>
-  </si>
-  <si>
     <t>р - рождаемость (промилле)</t>
   </si>
   <si>
@@ -97,6 +91,48 @@
   </si>
   <si>
     <t>еп - естественный прирост</t>
+  </si>
+  <si>
+    <t>Колонки:</t>
+  </si>
+  <si>
+    <t>чж-о</t>
+  </si>
+  <si>
+    <t>чр</t>
+  </si>
+  <si>
+    <t>чп</t>
+  </si>
+  <si>
+    <t>v-чп</t>
+  </si>
+  <si>
+    <t>Число рождений и смертей -- по таблице "Mouvement de la population en…" в ежегодниках за 1899-1918 гг.</t>
+  </si>
+  <si>
+    <t>Рождаемость и смертность вычислены от СРЕДНЕГОДОВОГО населения, ср. таблицы 34, 45, 57</t>
+  </si>
+  <si>
+    <t>чо - численность населения обоих полов на НАЧАЛО года (в таблице 8 она приведена на КОНЕЦ года, мы сдвинули ряд на год)</t>
+  </si>
+  <si>
+    <t>v-чж-середина года</t>
+  </si>
+  <si>
+    <t>v-чр</t>
+  </si>
+  <si>
+    <t>v-dif-чр</t>
+  </si>
+  <si>
+    <t>чу</t>
+  </si>
+  <si>
+    <t>v-чу</t>
+  </si>
+  <si>
+    <t>v-dif-чу</t>
   </si>
 </sst>
 </file>
@@ -150,7 +186,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -163,6 +199,7 @@
     </xf>
     <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -477,10 +514,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3FF14B5-51C3-4801-A462-A7A992E82D76}">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -525,24 +562,39 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B18" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B19" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" t="s">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B20" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" t="s">
-        <v>19</v>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -554,16 +606,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8C00549-9918-4379-BD4C-03644962493B}">
   <dimension ref="A1:T54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N28" sqref="N28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="14.26171875" customWidth="1"/>
+    <col min="16" max="16" width="18.20703125" customWidth="1"/>
+    <col min="17" max="17" width="10.68359375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -571,7 +625,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>3</v>
@@ -585,8 +639,35 @@
       <c r="H1" s="5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="J1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="R1" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="S1" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="T1" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -609,8 +690,38 @@
         <f>D2-E2-F2</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="J2" s="7">
+        <f>6476+6161</f>
+        <v>12637</v>
+      </c>
+      <c r="K2" s="7">
+        <f>3911+3674</f>
+        <v>7585</v>
+      </c>
+      <c r="L2" s="7"/>
+      <c r="N2" s="8"/>
+      <c r="P2" s="8">
+        <f>(C2+C3)/2</f>
+        <v>382744.5</v>
+      </c>
+      <c r="Q2" s="8">
+        <f>P2*D2/1000</f>
+        <v>12630.568499999999</v>
+      </c>
+      <c r="R2" s="8">
+        <f>P2*E2/1000</f>
+        <v>7578.3411000000006</v>
+      </c>
+      <c r="S2" s="8">
+        <f>Q2-J2</f>
+        <v>-6.4315000000005966</v>
+      </c>
+      <c r="T2" s="8">
+        <f>R2-K2</f>
+        <v>-6.6588999999994485</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="B3">
         <f>B2+1</f>
         <v>1897</v>
@@ -631,10 +742,40 @@
         <f t="shared" ref="H3:H22" si="0">D3-E3-F3</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="J3" s="7">
+        <f>6646+6124</f>
+        <v>12770</v>
+      </c>
+      <c r="K3" s="7">
+        <f>3848+3676</f>
+        <v>7524</v>
+      </c>
+      <c r="L3" s="7"/>
+      <c r="N3" s="8"/>
+      <c r="P3" s="8">
+        <f t="shared" ref="P3:P22" si="1">(C3+C4)/2</f>
+        <v>390380</v>
+      </c>
+      <c r="Q3" s="8">
+        <f t="shared" ref="Q3:Q22" si="2">P3*D3/1000</f>
+        <v>12765.426000000001</v>
+      </c>
+      <c r="R3" s="8">
+        <f t="shared" ref="R3:R22" si="3">P3*E3/1000</f>
+        <v>7534.3339999999998</v>
+      </c>
+      <c r="S3" s="8">
+        <f t="shared" ref="S3:S22" si="4">Q3-J3</f>
+        <v>-4.5739999999987049</v>
+      </c>
+      <c r="T3" s="8">
+        <f t="shared" ref="T3:T22" si="5">R3-K3</f>
+        <v>10.333999999999833</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="B4">
-        <f t="shared" ref="B4:B22" si="1">B3+1</f>
+        <f t="shared" ref="B4:B22" si="6">B3+1</f>
         <v>1898</v>
       </c>
       <c r="C4" s="7">
@@ -653,10 +794,40 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="J4" s="7">
+        <f>7458+6813</f>
+        <v>14271</v>
+      </c>
+      <c r="K4" s="7">
+        <f>3995+3658</f>
+        <v>7653</v>
+      </c>
+      <c r="L4" s="7"/>
+      <c r="N4" s="8"/>
+      <c r="P4" s="8">
+        <f t="shared" si="1"/>
+        <v>399056.5</v>
+      </c>
+      <c r="Q4" s="8">
+        <f t="shared" si="2"/>
+        <v>14286.222699999998</v>
+      </c>
+      <c r="R4" s="8">
+        <f t="shared" si="3"/>
+        <v>7661.8847999999998</v>
+      </c>
+      <c r="S4" s="8">
+        <f t="shared" si="4"/>
+        <v>15.22269999999844</v>
+      </c>
+      <c r="T4" s="8">
+        <f t="shared" si="5"/>
+        <v>8.8847999999998137</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="B5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>1899</v>
       </c>
       <c r="C5" s="7">
@@ -675,10 +846,40 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="J5" s="7">
+        <f>7350+7099</f>
+        <v>14449</v>
+      </c>
+      <c r="K5" s="7">
+        <f>4075+3903</f>
+        <v>7978</v>
+      </c>
+      <c r="L5" s="7"/>
+      <c r="N5" s="8"/>
+      <c r="P5" s="8">
+        <f t="shared" si="1"/>
+        <v>408636</v>
+      </c>
+      <c r="Q5" s="8">
+        <f t="shared" si="2"/>
+        <v>14465.714399999999</v>
+      </c>
+      <c r="R5" s="8">
+        <f t="shared" si="3"/>
+        <v>7968.402</v>
+      </c>
+      <c r="S5" s="8">
+        <f t="shared" si="4"/>
+        <v>16.714399999998932</v>
+      </c>
+      <c r="T5" s="8">
+        <f t="shared" si="5"/>
+        <v>-9.5979999999999563</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="B6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>1900</v>
       </c>
       <c r="C6" s="7">
@@ -697,10 +898,38 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="J6" s="7">
+        <v>14489</v>
+      </c>
+      <c r="K6" s="7">
+        <v>8915</v>
+      </c>
+      <c r="L6" s="7"/>
+      <c r="N6" s="8"/>
+      <c r="P6" s="8">
+        <f t="shared" si="1"/>
+        <v>417544.5</v>
+      </c>
+      <c r="Q6" s="8">
+        <f t="shared" si="2"/>
+        <v>14488.79415</v>
+      </c>
+      <c r="R6" s="8">
+        <f t="shared" si="3"/>
+        <v>8935.452299999999</v>
+      </c>
+      <c r="S6" s="8">
+        <f t="shared" si="4"/>
+        <v>-0.20585000000028231</v>
+      </c>
+      <c r="T6" s="8">
+        <f t="shared" si="5"/>
+        <v>20.452299999999013</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="B7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>1901</v>
       </c>
       <c r="C7" s="7">
@@ -719,10 +948,38 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="J7" s="7">
+        <v>14807</v>
+      </c>
+      <c r="K7" s="7">
+        <v>9029</v>
+      </c>
+      <c r="L7" s="7"/>
+      <c r="N7" s="8"/>
+      <c r="P7" s="8">
+        <f t="shared" si="1"/>
+        <v>426042</v>
+      </c>
+      <c r="Q7" s="8">
+        <f t="shared" si="2"/>
+        <v>14826.2616</v>
+      </c>
+      <c r="R7" s="8">
+        <f t="shared" si="3"/>
+        <v>9032.090400000001</v>
+      </c>
+      <c r="S7" s="8">
+        <f t="shared" si="4"/>
+        <v>19.261599999999817</v>
+      </c>
+      <c r="T7" s="8">
+        <f t="shared" si="5"/>
+        <v>3.0904000000009546</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="B8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>1902</v>
       </c>
       <c r="C8" s="7">
@@ -741,10 +998,38 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="J8" s="7">
+        <v>14905</v>
+      </c>
+      <c r="K8" s="7">
+        <v>9032</v>
+      </c>
+      <c r="L8" s="7"/>
+      <c r="N8" s="8"/>
+      <c r="P8" s="8">
+        <f t="shared" si="1"/>
+        <v>435016.5</v>
+      </c>
+      <c r="Q8" s="8">
+        <f t="shared" si="2"/>
+        <v>14921.06595</v>
+      </c>
+      <c r="R8" s="8">
+        <f t="shared" si="3"/>
+        <v>9048.3432000000012</v>
+      </c>
+      <c r="S8" s="8">
+        <f t="shared" si="4"/>
+        <v>16.065950000000157</v>
+      </c>
+      <c r="T8" s="8">
+        <f t="shared" si="5"/>
+        <v>16.343200000001161</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="B9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>1903</v>
       </c>
       <c r="C9" s="7">
@@ -763,10 +1048,38 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="J9" s="7">
+        <v>15065</v>
+      </c>
+      <c r="K9" s="7">
+        <v>8298</v>
+      </c>
+      <c r="L9" s="7"/>
+      <c r="N9" s="8"/>
+      <c r="P9" s="8">
+        <f t="shared" si="1"/>
+        <v>444983</v>
+      </c>
+      <c r="Q9" s="8">
+        <f t="shared" si="2"/>
+        <v>15084.923699999999</v>
+      </c>
+      <c r="R9" s="8">
+        <f t="shared" si="3"/>
+        <v>8276.6838000000007</v>
+      </c>
+      <c r="S9" s="8">
+        <f t="shared" si="4"/>
+        <v>19.923699999999371</v>
+      </c>
+      <c r="T9" s="8">
+        <f t="shared" si="5"/>
+        <v>-21.316199999999299</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="B10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>1904</v>
       </c>
       <c r="C10" s="7">
@@ -785,10 +1098,38 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="J10" s="7">
+        <v>15795</v>
+      </c>
+      <c r="K10" s="7">
+        <v>8875</v>
+      </c>
+      <c r="L10" s="7"/>
+      <c r="N10" s="8"/>
+      <c r="P10" s="8">
+        <f t="shared" si="1"/>
+        <v>455836.5</v>
+      </c>
+      <c r="Q10" s="8">
+        <f t="shared" si="2"/>
+        <v>15817.52655</v>
+      </c>
+      <c r="R10" s="8">
+        <f t="shared" si="3"/>
+        <v>8888.8117500000008</v>
+      </c>
+      <c r="S10" s="8">
+        <f t="shared" si="4"/>
+        <v>22.526550000000498</v>
+      </c>
+      <c r="T10" s="8">
+        <f t="shared" si="5"/>
+        <v>13.811750000000757</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="B11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>1905</v>
       </c>
       <c r="C11" s="7">
@@ -807,10 +1148,38 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="J11" s="7">
+        <v>15573</v>
+      </c>
+      <c r="K11" s="7">
+        <v>9667</v>
+      </c>
+      <c r="L11" s="7"/>
+      <c r="N11" s="8"/>
+      <c r="P11" s="8">
+        <f t="shared" si="1"/>
+        <v>465904</v>
+      </c>
+      <c r="Q11" s="8">
+        <f t="shared" si="2"/>
+        <v>15561.193600000001</v>
+      </c>
+      <c r="R11" s="8">
+        <f t="shared" si="3"/>
+        <v>9644.2127999999993</v>
+      </c>
+      <c r="S11" s="8">
+        <f t="shared" si="4"/>
+        <v>-11.806399999999485</v>
+      </c>
+      <c r="T11" s="8">
+        <f t="shared" si="5"/>
+        <v>-22.787200000000666</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="B12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>1906</v>
       </c>
       <c r="C12" s="7">
@@ -829,10 +1198,38 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="J12" s="7">
+        <v>16273</v>
+      </c>
+      <c r="K12" s="7">
+        <v>9593</v>
+      </c>
+      <c r="L12" s="7"/>
+      <c r="N12" s="8"/>
+      <c r="P12" s="8">
+        <f t="shared" si="1"/>
+        <v>475781.5</v>
+      </c>
+      <c r="Q12" s="8">
+        <f t="shared" si="2"/>
+        <v>16271.7273</v>
+      </c>
+      <c r="R12" s="8">
+        <f t="shared" si="3"/>
+        <v>9610.7862999999998</v>
+      </c>
+      <c r="S12" s="8">
+        <f t="shared" si="4"/>
+        <v>-1.2726999999995314</v>
+      </c>
+      <c r="T12" s="8">
+        <f t="shared" si="5"/>
+        <v>17.786299999999756</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="B13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>1907</v>
       </c>
       <c r="C13" s="7">
@@ -851,10 +1248,38 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="J13" s="7">
+        <v>17007</v>
+      </c>
+      <c r="K13" s="7">
+        <v>9236</v>
+      </c>
+      <c r="L13" s="7"/>
+      <c r="N13" s="8"/>
+      <c r="P13" s="8">
+        <f t="shared" si="1"/>
+        <v>486760</v>
+      </c>
+      <c r="Q13" s="8">
+        <f t="shared" si="2"/>
+        <v>16987.923999999999</v>
+      </c>
+      <c r="R13" s="8">
+        <f t="shared" si="3"/>
+        <v>9248.44</v>
+      </c>
+      <c r="S13" s="8">
+        <f t="shared" si="4"/>
+        <v>-19.076000000000931</v>
+      </c>
+      <c r="T13" s="8">
+        <f t="shared" si="5"/>
+        <v>12.440000000000509</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="B14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>1908</v>
       </c>
       <c r="C14" s="7">
@@ -873,10 +1298,38 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="J14" s="7">
+        <v>16851</v>
+      </c>
+      <c r="K14" s="7">
+        <v>9727</v>
+      </c>
+      <c r="L14" s="7"/>
+      <c r="N14" s="8"/>
+      <c r="P14" s="8">
+        <f t="shared" si="1"/>
+        <v>497498</v>
+      </c>
+      <c r="Q14" s="8">
+        <f t="shared" si="2"/>
+        <v>16865.182199999999</v>
+      </c>
+      <c r="R14" s="8">
+        <f t="shared" si="3"/>
+        <v>9750.9608000000007</v>
+      </c>
+      <c r="S14" s="8">
+        <f t="shared" si="4"/>
+        <v>14.182199999999284</v>
+      </c>
+      <c r="T14" s="8">
+        <f t="shared" si="5"/>
+        <v>23.960800000000745</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="B15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>1909</v>
       </c>
       <c r="C15" s="7">
@@ -895,10 +1348,38 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="J15" s="7">
+        <v>17473</v>
+      </c>
+      <c r="K15" s="7">
+        <v>8824</v>
+      </c>
+      <c r="L15" s="7"/>
+      <c r="N15" s="8"/>
+      <c r="P15" s="8">
+        <f t="shared" si="1"/>
+        <v>507739</v>
+      </c>
+      <c r="Q15" s="8">
+        <f t="shared" si="2"/>
+        <v>17466.221599999997</v>
+      </c>
+      <c r="R15" s="8">
+        <f t="shared" si="3"/>
+        <v>8834.6585999999988</v>
+      </c>
+      <c r="S15" s="8">
+        <f t="shared" si="4"/>
+        <v>-6.7784000000028755</v>
+      </c>
+      <c r="T15" s="8">
+        <f t="shared" si="5"/>
+        <v>10.658599999998842</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="B16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>1910</v>
       </c>
       <c r="C16" s="7">
@@ -917,10 +1398,38 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="J16" s="7">
+        <v>16565</v>
+      </c>
+      <c r="K16" s="7">
+        <v>9545</v>
+      </c>
+      <c r="L16" s="7"/>
+      <c r="N16" s="8"/>
+      <c r="P16" s="8">
+        <f t="shared" si="1"/>
+        <v>517225</v>
+      </c>
+      <c r="Q16" s="8">
+        <f t="shared" si="2"/>
+        <v>16551.2</v>
+      </c>
+      <c r="R16" s="8">
+        <f t="shared" si="3"/>
+        <v>9568.6625000000004</v>
+      </c>
+      <c r="S16" s="8">
+        <f t="shared" si="4"/>
+        <v>-13.799999999999272</v>
+      </c>
+      <c r="T16" s="8">
+        <f t="shared" si="5"/>
+        <v>23.662500000000364</v>
+      </c>
     </row>
     <row r="17" spans="2:20" x14ac:dyDescent="0.55000000000000004">
       <c r="B17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>1911</v>
       </c>
       <c r="C17" s="7">
@@ -939,10 +1448,38 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="J17" s="7">
+        <v>16526</v>
+      </c>
+      <c r="K17" s="7">
+        <v>9059</v>
+      </c>
+      <c r="L17" s="7"/>
+      <c r="N17" s="8"/>
+      <c r="P17" s="8">
+        <f t="shared" si="1"/>
+        <v>525523</v>
+      </c>
+      <c r="Q17" s="8">
+        <f t="shared" si="2"/>
+        <v>16501.422200000001</v>
+      </c>
+      <c r="R17" s="8">
+        <f t="shared" si="3"/>
+        <v>9038.9956000000002</v>
+      </c>
+      <c r="S17" s="8">
+        <f t="shared" si="4"/>
+        <v>-24.577799999999115</v>
+      </c>
+      <c r="T17" s="8">
+        <f t="shared" si="5"/>
+        <v>-20.004399999999805</v>
+      </c>
     </row>
     <row r="18" spans="2:20" x14ac:dyDescent="0.55000000000000004">
       <c r="B18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>1912</v>
       </c>
       <c r="C18" s="7">
@@ -961,10 +1498,43 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="J18" s="7">
+        <v>16473</v>
+      </c>
+      <c r="K18" s="7">
+        <v>8967</v>
+      </c>
+      <c r="L18" s="7">
+        <v>7506</v>
+      </c>
+      <c r="N18" s="8">
+        <f t="shared" ref="N2:N21" si="7">J18-K18-L18</f>
+        <v>0</v>
+      </c>
+      <c r="P18" s="8">
+        <f t="shared" si="1"/>
+        <v>533975.5</v>
+      </c>
+      <c r="Q18" s="8">
+        <f t="shared" si="2"/>
+        <v>16446.445400000001</v>
+      </c>
+      <c r="R18" s="8">
+        <f t="shared" si="3"/>
+        <v>8970.7884000000013</v>
+      </c>
+      <c r="S18" s="8">
+        <f t="shared" si="4"/>
+        <v>-26.554599999999482</v>
+      </c>
+      <c r="T18" s="8">
+        <f t="shared" si="5"/>
+        <v>3.7884000000012747</v>
+      </c>
     </row>
     <row r="19" spans="2:20" x14ac:dyDescent="0.55000000000000004">
       <c r="B19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>1913</v>
       </c>
       <c r="C19" s="7">
@@ -983,12 +1553,43 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q19" s="2"/>
-      <c r="T19" s="7"/>
+      <c r="J19" s="7">
+        <v>15567</v>
+      </c>
+      <c r="K19" s="7">
+        <v>8771</v>
+      </c>
+      <c r="L19" s="7">
+        <v>6796</v>
+      </c>
+      <c r="N19" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="P19" s="8">
+        <f t="shared" si="1"/>
+        <v>542463.5</v>
+      </c>
+      <c r="Q19" s="8">
+        <f t="shared" si="2"/>
+        <v>15568.702449999999</v>
+      </c>
+      <c r="R19" s="8">
+        <f t="shared" si="3"/>
+        <v>8787.9087</v>
+      </c>
+      <c r="S19" s="8">
+        <f t="shared" si="4"/>
+        <v>1.702449999998862</v>
+      </c>
+      <c r="T19" s="8">
+        <f t="shared" si="5"/>
+        <v>16.908699999999953</v>
+      </c>
     </row>
     <row r="20" spans="2:20" x14ac:dyDescent="0.55000000000000004">
       <c r="B20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>1914</v>
       </c>
       <c r="C20" s="7">
@@ -1007,12 +1608,43 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q20" s="2"/>
-      <c r="T20" s="7"/>
+      <c r="J20" s="7">
+        <v>15799</v>
+      </c>
+      <c r="K20" s="7">
+        <v>8699</v>
+      </c>
+      <c r="L20" s="7">
+        <v>7100</v>
+      </c>
+      <c r="N20" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="P20" s="8">
+        <f t="shared" si="1"/>
+        <v>550884</v>
+      </c>
+      <c r="Q20" s="8">
+        <f t="shared" si="2"/>
+        <v>15810.370799999999</v>
+      </c>
+      <c r="R20" s="8">
+        <f t="shared" si="3"/>
+        <v>8703.967200000001</v>
+      </c>
+      <c r="S20" s="8">
+        <f t="shared" si="4"/>
+        <v>11.370799999998781</v>
+      </c>
+      <c r="T20" s="8">
+        <f t="shared" si="5"/>
+        <v>4.9672000000009575</v>
+      </c>
     </row>
     <row r="21" spans="2:20" x14ac:dyDescent="0.55000000000000004">
       <c r="B21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>1915</v>
       </c>
       <c r="C21" s="7">
@@ -1031,13 +1663,43 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q21" s="2"/>
-      <c r="R21" s="4"/>
-      <c r="T21" s="7"/>
+      <c r="J21" s="7">
+        <v>14932</v>
+      </c>
+      <c r="K21" s="7">
+        <v>8964</v>
+      </c>
+      <c r="L21" s="7">
+        <v>5968</v>
+      </c>
+      <c r="N21" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="P21" s="8">
+        <f t="shared" si="1"/>
+        <v>558756.5</v>
+      </c>
+      <c r="Q21" s="8">
+        <f t="shared" si="2"/>
+        <v>14918.79855</v>
+      </c>
+      <c r="R21" s="8">
+        <f t="shared" si="3"/>
+        <v>8940.1039999999994</v>
+      </c>
+      <c r="S21" s="8">
+        <f t="shared" si="4"/>
+        <v>-13.201450000000477</v>
+      </c>
+      <c r="T21" s="8">
+        <f t="shared" si="5"/>
+        <v>-23.89600000000064</v>
+      </c>
     </row>
     <row r="22" spans="2:20" x14ac:dyDescent="0.55000000000000004">
       <c r="B22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>1916</v>
       </c>
       <c r="C22" s="7">
@@ -1056,9 +1718,39 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q22" s="2"/>
-      <c r="R22" s="4"/>
-      <c r="T22" s="7"/>
+      <c r="J22" s="7">
+        <v>14242</v>
+      </c>
+      <c r="K22" s="7">
+        <v>10007</v>
+      </c>
+      <c r="L22" s="7">
+        <v>4235</v>
+      </c>
+      <c r="N22" s="8">
+        <f>J22-K22-L22</f>
+        <v>0</v>
+      </c>
+      <c r="P22" s="8">
+        <f t="shared" si="1"/>
+        <v>564742.5</v>
+      </c>
+      <c r="Q22" s="8">
+        <f t="shared" si="2"/>
+        <v>14231.511</v>
+      </c>
+      <c r="R22" s="8">
+        <f t="shared" si="3"/>
+        <v>9995.9422500000001</v>
+      </c>
+      <c r="S22" s="8">
+        <f t="shared" si="4"/>
+        <v>-10.488999999999578</v>
+      </c>
+      <c r="T22" s="8">
+        <f t="shared" si="5"/>
+        <v>-11.057749999999942</v>
+      </c>
     </row>
     <row r="23" spans="2:20" x14ac:dyDescent="0.55000000000000004">
       <c r="B23">
